--- a/OpenCart - Test Cases.xlsx
+++ b/OpenCart - Test Cases.xlsx
@@ -8,26 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEST\Self Projects\OpenCart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD75EEA-2A2F-460F-8234-003F156E0A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357CBEFF-E080-4682-A7A0-BD8E68FE4BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="2" r:id="rId1"/>
     <sheet name="Register" sheetId="1" r:id="rId2"/>
     <sheet name="Login" sheetId="4" r:id="rId3"/>
+    <sheet name="Logout" sheetId="5" r:id="rId4"/>
+    <sheet name="Forgot Password" sheetId="16" r:id="rId5"/>
+    <sheet name="Search" sheetId="17" r:id="rId6"/>
+    <sheet name="My Account" sheetId="18" r:id="rId7"/>
+    <sheet name="Add to Cart" sheetId="19" r:id="rId8"/>
+    <sheet name="Shopping Cart Page" sheetId="20" r:id="rId9"/>
+    <sheet name="Product Display Page" sheetId="21" r:id="rId10"/>
+    <sheet name="Checkout" sheetId="22" r:id="rId11"/>
+    <sheet name="Header &amp; Footer" sheetId="23" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="279">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -409,6 +427,487 @@
   </si>
   <si>
     <t>TC_Login_006</t>
+  </si>
+  <si>
+    <t>Email and Password fields are visible and has a proper placeholder</t>
+  </si>
+  <si>
+    <t>TC_Login_007</t>
+  </si>
+  <si>
+    <t>Verify Browser Back button after login does not log user out</t>
+  </si>
+  <si>
+    <t>Insert Valid Email Address and password (Refer to Test Data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is not logged out </t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>Click on Browser Back button</t>
+  </si>
+  <si>
+    <t>Click on the 'Logout' option</t>
+  </si>
+  <si>
+    <t>User is not logged back in</t>
+  </si>
+  <si>
+    <t>Verify Browser Back button after logout does not log user in</t>
+  </si>
+  <si>
+    <t>TC_Login_008</t>
+  </si>
+  <si>
+    <t>Enter an invalid Password</t>
+  </si>
+  <si>
+    <t>Error Message is displayed</t>
+  </si>
+  <si>
+    <t>Click Repeat steps 3-5 around 5 times</t>
+  </si>
+  <si>
+    <t>User is locked out from logging in</t>
+  </si>
+  <si>
+    <t>Verify Unsuccessful Login limit</t>
+  </si>
+  <si>
+    <t>TC_Login_009</t>
+  </si>
+  <si>
+    <t>Email - testertesting@tester.ts
+Password - anything except 123123</t>
+  </si>
+  <si>
+    <t>Verify that the password text is shown as stars (****)</t>
+  </si>
+  <si>
+    <t>Enter a Characters into the password field</t>
+  </si>
+  <si>
+    <t>characters are hidden and displayed as stars instead (****)</t>
+  </si>
+  <si>
+    <t>TC_Login_010</t>
+  </si>
+  <si>
+    <t>Verify that user can only log in with changed password after changing password</t>
+  </si>
+  <si>
+    <t>Password has been changed</t>
+  </si>
+  <si>
+    <t>User is redirected to My account</t>
+  </si>
+  <si>
+    <t>Click on 'Change your Password'</t>
+  </si>
+  <si>
+    <t>Enter a new password in the password and confirm password fields</t>
+  </si>
+  <si>
+    <t>Click on confirm</t>
+  </si>
+  <si>
+    <t>Click on My Account &gt; Logout</t>
+  </si>
+  <si>
+    <t>User is logged out</t>
+  </si>
+  <si>
+    <t>Repeat steps 1-4 and put in the old password</t>
+  </si>
+  <si>
+    <t>Used is not logged in and an error message is displayed</t>
+  </si>
+  <si>
+    <t>Perform Step 8 then Repeat steps 1-4 and put in the new password</t>
+  </si>
+  <si>
+    <t>Verify Login Session is Cached</t>
+  </si>
+  <si>
+    <t>Close the browser and then open the site again</t>
+  </si>
+  <si>
+    <t>User should still be logged in</t>
+  </si>
+  <si>
+    <t>TC_Login_011</t>
+  </si>
+  <si>
+    <t>TC_Login_012</t>
+  </si>
+  <si>
+    <t>Each link should redirect to its relevant page</t>
+  </si>
+  <si>
+    <t>Verify user can navigate to other pages from the login page</t>
+  </si>
+  <si>
+    <t>Click on all the links in the Header, Footer, Breadcrumb menu and Categories menu</t>
+  </si>
+  <si>
+    <t>TC_Login_013</t>
+  </si>
+  <si>
+    <t>TC_Login_014</t>
+  </si>
+  <si>
+    <t>Verify the UI of the Login Page</t>
+  </si>
+  <si>
+    <t>Verify the Login Page functionality in all supported environments</t>
+  </si>
+  <si>
+    <t>Login Page should adhere to the UI checklist</t>
+  </si>
+  <si>
+    <t>Login functionality should work correctly in all supported environments</t>
+  </si>
+  <si>
+    <t>TC_Login_015</t>
+  </si>
+  <si>
+    <t>TC_Logout_001</t>
+  </si>
+  <si>
+    <t>TC_Logout_002</t>
+  </si>
+  <si>
+    <t>Verify logging out from 'My Account' Dropdown menu</t>
+  </si>
+  <si>
+    <t>Verify Logging out from Right column menu</t>
+  </si>
+  <si>
+    <t>TC_Logout_003</t>
+  </si>
+  <si>
+    <t>Verify you are not automatically logged out when closing the browser</t>
+  </si>
+  <si>
+    <t>TC_Logout_004</t>
+  </si>
+  <si>
+    <t>TC_Logout_005</t>
+  </si>
+  <si>
+    <t>Verify 'Right Column Menu' logout option is not available before login</t>
+  </si>
+  <si>
+    <t>Verify 'My Account' logout option is not available before login</t>
+  </si>
+  <si>
+    <t>TC_Logout_006</t>
+  </si>
+  <si>
+    <t>User is Logged in</t>
+  </si>
+  <si>
+    <t>Click on 'Log out'</t>
+  </si>
+  <si>
+    <t>Click on 'Register'</t>
+  </si>
+  <si>
+    <t>Once the Dropdown Menu appears, Click on 'My Account'</t>
+  </si>
+  <si>
+    <t>User is redirected to My Account Page</t>
+  </si>
+  <si>
+    <t>Click on 'Log out' In the right side column menu</t>
+  </si>
+  <si>
+    <t>User is logged out and is redirected to log out page</t>
+  </si>
+  <si>
+    <t>Click on 'Continue' button</t>
+  </si>
+  <si>
+    <t>User is redirected to homepage</t>
+  </si>
+  <si>
+    <t>Close the browser</t>
+  </si>
+  <si>
+    <t>Open the application URL</t>
+  </si>
+  <si>
+    <t>Click on my Account</t>
+  </si>
+  <si>
+    <t>User is still logged in</t>
+  </si>
+  <si>
+    <t>Open the Application URL from a different device that is logged in on the same account</t>
+  </si>
+  <si>
+    <t>Verify Logout is not shared between different devices</t>
+  </si>
+  <si>
+    <t>Log out function is not available</t>
+  </si>
+  <si>
+    <t>User is redirected to register page, the right side column is displayed and does not have a log out button</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Verify URL, Header, and UI of Account Logout Page</t>
+  </si>
+  <si>
+    <t>Click on 'Logout'</t>
+  </si>
+  <si>
+    <t>User is logged out and is redirected to log out page, the log out page URL and Page title are correct, and the UI Adheres to the UI Checklist</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>TC_FP_001</t>
+  </si>
+  <si>
+    <t>TC_FP_002</t>
+  </si>
+  <si>
+    <t>TC_FP_003</t>
+  </si>
+  <si>
+    <t>TC_FP_004</t>
+  </si>
+  <si>
+    <t>TC_FP_005</t>
+  </si>
+  <si>
+    <t>TC_FP_006</t>
+  </si>
+  <si>
+    <t>TC_FP_007</t>
+  </si>
+  <si>
+    <t>Verify user is able to reset password</t>
+  </si>
+  <si>
+    <t>Verify how many times user is able to reset their password with the password reset link</t>
+  </si>
+  <si>
+    <t>Verify old password doesn't work after resetting</t>
+  </si>
+  <si>
+    <t>Verify Page Title and URL</t>
+  </si>
+  <si>
+    <t>An existing account</t>
+  </si>
+  <si>
+    <t>Click on 'Login'</t>
+  </si>
+  <si>
+    <t>Click on 'Reset your password'</t>
+  </si>
+  <si>
+    <t>Enter Email Address and press on Continue</t>
+  </si>
+  <si>
+    <t>Click the link in the email</t>
+  </si>
+  <si>
+    <t>Enter a new password and confirm password</t>
+  </si>
+  <si>
+    <t>TC_Search_001</t>
+  </si>
+  <si>
+    <t>TC_Search_002</t>
+  </si>
+  <si>
+    <t>TC_Search_003</t>
+  </si>
+  <si>
+    <t>TC_Search_004</t>
+  </si>
+  <si>
+    <t>TC_Search_005</t>
+  </si>
+  <si>
+    <t>TC_Search_006</t>
+  </si>
+  <si>
+    <t>TC_Search_007</t>
+  </si>
+  <si>
+    <t>Password is reset</t>
+  </si>
+  <si>
+    <t>Click on the password reset in the Email once again</t>
+  </si>
+  <si>
+    <t>User should not be able to reset their password again</t>
+  </si>
+  <si>
+    <t>TC_FP_001 Executed first</t>
+  </si>
+  <si>
+    <t>Use the old password credentials</t>
+  </si>
+  <si>
+    <t>Password should not work and an error message is displayed</t>
+  </si>
+  <si>
+    <t>Verify logging in with old password after starting reset proccess and have not reset the passsword yet</t>
+  </si>
+  <si>
+    <t>an email with a password reset link is sent to the user's email</t>
+  </si>
+  <si>
+    <t>User should be logged in</t>
+  </si>
+  <si>
+    <t>Enter Email Address into the Email Address Field</t>
+  </si>
+  <si>
+    <t>Enter old password into the password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify password reset email is sent </t>
+  </si>
+  <si>
+    <t>User is navigated to the reset password page, the URL and Page title are correct</t>
+  </si>
+  <si>
+    <t>Version 1.0</t>
+  </si>
+  <si>
+    <t>Verify Email Field Validation</t>
+  </si>
+  <si>
+    <t>testertesting
+testertesting@tester
+testertesting@tester.</t>
+  </si>
+  <si>
+    <t>Enter Email Address (Refer to test data) and press on Continue</t>
+  </si>
+  <si>
+    <t>A validation message should display</t>
+  </si>
+  <si>
+    <t>TC_Logout_007</t>
+  </si>
+  <si>
+    <t>Added Test Cases for Register and Login</t>
+  </si>
+  <si>
+    <t>Version 2.0</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Verify Partial search for item that exists</t>
+  </si>
+  <si>
+    <t>Verify searching for non existing item returns no results</t>
+  </si>
+  <si>
+    <t>Verify searching with no input</t>
+  </si>
+  <si>
+    <t>Verify Searchbar Placeholder</t>
+  </si>
+  <si>
+    <t>Verify searching for an item by selecting its category</t>
+  </si>
+  <si>
+    <t>Verify empty search with category selected returns all items in category</t>
+  </si>
+  <si>
+    <t>Verify searching with 'Search criteria' searchbar</t>
+  </si>
+  <si>
+    <t>Verify 'Show' Filter option displays correct amount of products</t>
+  </si>
+  <si>
+    <t>Verify 'Sort By' Filter option</t>
+  </si>
+  <si>
+    <t>TC_Search_008</t>
+  </si>
+  <si>
+    <t>TC_Search_009</t>
+  </si>
+  <si>
+    <t>TC_Search_010</t>
+  </si>
+  <si>
+    <t>TC_Search_011</t>
+  </si>
+  <si>
+    <t>TC_Search_012</t>
+  </si>
+  <si>
+    <t>Verify Search Results Page UI</t>
+  </si>
+  <si>
+    <t>Click on Continue Then Log in with the new Credentials</t>
+  </si>
+  <si>
+    <t>Password is reset and user can log in with the new password</t>
+  </si>
+  <si>
+    <t>Click on Search</t>
+  </si>
+  <si>
+    <t>Input "ima" in the search bar at the top of the screen</t>
+  </si>
+  <si>
+    <t>User is redirected to a search result page, the product "iMac" is displayed</t>
+  </si>
+  <si>
+    <t>Verify searching with special characters doesn't lead to unexpected errors</t>
+  </si>
+  <si>
+    <t>1) *****
+2) $$$$$
+3) !!!!!!
+4) \\\\
+5) ////</t>
+  </si>
+  <si>
+    <t>Input the data shown in "Test Data" in the  search bar at the top of the screen</t>
+  </si>
+  <si>
+    <t>Click on the Search button next to the searchbar at the top of the screen</t>
+  </si>
+  <si>
+    <t>User is redirected to search results page with all products shown</t>
+  </si>
+  <si>
+    <t>Input "aaaaaaaa" in the search bar at the top of the screen</t>
+  </si>
+  <si>
+    <t>User is redirected to an empty search results page containing the text "There is no product that matches the search criteria."</t>
+  </si>
+  <si>
+    <t>User is redirected to the search results page and results appear if applicable</t>
+  </si>
+  <si>
+    <t>Verify searching for existing item by inputting its exact name</t>
+  </si>
+  <si>
+    <t>Input "iMac" in the search bar at the top of the screen</t>
+  </si>
+  <si>
+    <t>Added Tabs for all sections in scope, added test cases to Logout, Forgot Password and Search</t>
   </si>
 </sst>
 </file>
@@ -452,7 +951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -512,11 +1011,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -540,18 +1052,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,14 +1139,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,77 +1466,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139CAAD3-10D5-4185-A61A-82E16C6F1C43}">
   <dimension ref="D7:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="30">
         <v>45077</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="13" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E10" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="D11" s="37"/>
+      <c r="E11" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
@@ -935,18 +1555,1382 @@
       <c r="G15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="1">
     <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6635A3-A42A-4D12-B636-6385250D7A04}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="16">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88849728-5FD1-4A7E-B649-753B59AFD4BD}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="16">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFA95B4-0486-492F-8168-304CA89E4AD1}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="16">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -955,12 +2939,12 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
@@ -1000,16 +2984,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="3">
         <v>1</v>
       </c>
@@ -1021,10 +3005,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="3">
         <v>2</v>
       </c>
@@ -1038,10 +3022,10 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="3">
         <v>3</v>
       </c>
@@ -1053,10 +3037,10 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="3">
         <v>4</v>
       </c>
@@ -1068,10 +3052,10 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="3">
         <v>5</v>
       </c>
@@ -1085,10 +3069,10 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="3">
         <v>6</v>
       </c>
@@ -1113,16 +3097,16 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -1134,10 +3118,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
@@ -1151,10 +3135,10 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3">
         <v>3</v>
       </c>
@@ -1166,10 +3150,10 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3">
         <v>4</v>
       </c>
@@ -1181,10 +3165,10 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="3">
         <v>5</v>
       </c>
@@ -1196,10 +3180,10 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3">
         <v>6</v>
       </c>
@@ -1213,10 +3197,10 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="3">
         <v>7</v>
       </c>
@@ -1241,16 +3225,16 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -1262,10 +3246,10 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="3">
         <v>2</v>
       </c>
@@ -1279,10 +3263,10 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="3">
         <v>3</v>
       </c>
@@ -1294,10 +3278,10 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="3">
         <v>4</v>
       </c>
@@ -1322,16 +3306,16 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="3">
         <v>1</v>
       </c>
@@ -1343,10 +3327,10 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="3">
         <v>2</v>
       </c>
@@ -1360,10 +3344,10 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="3">
         <v>3</v>
       </c>
@@ -1375,10 +3359,10 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="3">
         <v>4</v>
       </c>
@@ -1390,10 +3374,10 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="3">
         <v>5</v>
       </c>
@@ -1407,10 +3391,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="3">
         <v>6</v>
       </c>
@@ -1424,10 +3408,10 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="3">
         <v>7</v>
       </c>
@@ -1452,16 +3436,16 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="3">
         <v>1</v>
       </c>
@@ -1473,10 +3457,10 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="3">
         <v>2</v>
       </c>
@@ -1490,10 +3474,10 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="3">
         <v>3</v>
       </c>
@@ -1505,10 +3489,10 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="3">
         <v>4</v>
       </c>
@@ -1520,10 +3504,10 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="3">
         <v>5</v>
       </c>
@@ -1537,10 +3521,10 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="3">
         <v>6</v>
       </c>
@@ -1554,10 +3538,10 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="3">
         <v>7</v>
       </c>
@@ -1582,16 +3566,16 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="3">
         <v>1</v>
       </c>
@@ -1603,10 +3587,10 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="3">
         <v>2</v>
       </c>
@@ -1620,10 +3604,10 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="3">
         <v>3</v>
       </c>
@@ -1635,10 +3619,10 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="3">
         <v>4</v>
       </c>
@@ -1650,10 +3634,10 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="3">
         <v>5</v>
       </c>
@@ -1667,10 +3651,10 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="3">
         <v>6</v>
       </c>
@@ -1682,10 +3666,10 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="3">
         <v>7</v>
       </c>
@@ -1710,16 +3694,16 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="3">
         <v>1</v>
       </c>
@@ -1731,10 +3715,10 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="3">
         <v>2</v>
       </c>
@@ -1748,10 +3732,10 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="3">
         <v>3</v>
       </c>
@@ -1763,10 +3747,10 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="3">
         <v>4</v>
       </c>
@@ -1778,10 +3762,10 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="3">
         <v>5</v>
       </c>
@@ -1793,10 +3777,10 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="3">
         <v>6</v>
       </c>
@@ -1808,10 +3792,10 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="3">
         <v>7</v>
       </c>
@@ -1836,16 +3820,16 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="3">
         <v>1</v>
       </c>
@@ -1857,10 +3841,10 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="3">
         <v>2</v>
       </c>
@@ -1874,10 +3858,10 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="3">
         <v>3</v>
       </c>
@@ -1889,10 +3873,10 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="3">
         <v>4</v>
       </c>
@@ -1904,10 +3888,10 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="3">
         <v>5</v>
       </c>
@@ -1919,10 +3903,10 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="3">
         <v>6</v>
       </c>
@@ -1947,16 +3931,16 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="16"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="3">
         <v>1</v>
       </c>
@@ -1968,10 +3952,10 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="3">
         <v>2</v>
       </c>
@@ -1985,10 +3969,10 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="3">
         <v>3</v>
       </c>
@@ -2000,10 +3984,10 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="3">
         <v>4</v>
       </c>
@@ -2015,10 +3999,10 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="3">
         <v>5</v>
       </c>
@@ -2030,10 +4014,10 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="3">
         <v>6</v>
       </c>
@@ -2058,16 +4042,16 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="16"/>
+      <c r="D68" s="38"/>
       <c r="E68" s="3">
         <v>1</v>
       </c>
@@ -2079,10 +4063,10 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="3">
         <v>2</v>
       </c>
@@ -2096,10 +4080,10 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="3">
         <v>3</v>
       </c>
@@ -2111,10 +4095,10 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="3">
         <v>4</v>
       </c>
@@ -2126,10 +4110,10 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="3">
         <v>5</v>
       </c>
@@ -2141,10 +4125,10 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="3">
         <v>6</v>
       </c>
@@ -2169,16 +4153,16 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="16"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="3">
         <v>1</v>
       </c>
@@ -2190,10 +4174,10 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
       <c r="E76" s="3">
         <v>2</v>
       </c>
@@ -2207,10 +4191,10 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
       <c r="E77" s="3">
         <v>3</v>
       </c>
@@ -2222,10 +4206,10 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="3">
         <v>4</v>
       </c>
@@ -2237,10 +4221,10 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
       <c r="E79" s="3">
         <v>5</v>
       </c>
@@ -2252,10 +4236,10 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
       <c r="E80" s="3">
         <v>6</v>
       </c>
@@ -2267,10 +4251,10 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
       <c r="E81" s="3">
         <v>7</v>
       </c>
@@ -2295,16 +4279,16 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="17"/>
+      <c r="D83" s="39"/>
       <c r="E83" s="3">
         <v>1</v>
       </c>
@@ -2316,10 +4300,10 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="3">
         <v>2</v>
       </c>
@@ -2333,10 +4317,10 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="3">
         <v>3</v>
       </c>
@@ -2348,10 +4332,10 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="3">
         <v>4</v>
       </c>
@@ -2363,10 +4347,10 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="3">
         <v>5</v>
       </c>
@@ -2380,10 +4364,10 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="3">
         <v>6</v>
       </c>
@@ -2408,16 +4392,16 @@
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="16"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="3">
         <v>1</v>
       </c>
@@ -2429,10 +4413,10 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
       <c r="E91" s="3">
         <v>2</v>
       </c>
@@ -2446,10 +4430,10 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
       <c r="E92" s="3">
         <v>3</v>
       </c>
@@ -2461,10 +4445,10 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="3">
         <v>4</v>
       </c>
@@ -2476,10 +4460,10 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
       <c r="E94" s="3">
         <v>5</v>
       </c>
@@ -2491,10 +4475,10 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
       <c r="E95" s="3">
         <v>6</v>
       </c>
@@ -2519,16 +4503,16 @@
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="16"/>
+      <c r="D97" s="38"/>
       <c r="E97" s="3">
         <v>1</v>
       </c>
@@ -2540,10 +4524,10 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="3">
         <v>2</v>
       </c>
@@ -2557,10 +4541,10 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="3">
         <v>3</v>
       </c>
@@ -2585,16 +4569,16 @@
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D101" s="16"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="3">
         <v>1</v>
       </c>
@@ -2606,10 +4590,10 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
       <c r="E102" s="3">
         <v>2</v>
       </c>
@@ -2623,10 +4607,10 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="3">
         <v>3</v>
       </c>
@@ -2638,10 +4622,10 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
       <c r="E104" s="3">
         <v>4</v>
       </c>
@@ -2653,10 +4637,10 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
       <c r="E105" s="3">
         <v>5</v>
       </c>
@@ -2668,10 +4652,10 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
       <c r="E106" s="3">
         <v>6</v>
       </c>
@@ -2685,10 +4669,10 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="3">
         <v>7</v>
       </c>
@@ -2713,16 +4697,16 @@
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D109" s="16"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="3">
         <v>1</v>
       </c>
@@ -2734,10 +4718,10 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
       <c r="E110" s="3">
         <v>2</v>
       </c>
@@ -2751,10 +4735,10 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38"/>
       <c r="E111" s="3">
         <v>3</v>
       </c>
@@ -2766,10 +4750,10 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
       <c r="E112" s="3">
         <v>5</v>
       </c>
@@ -2781,10 +4765,10 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
       <c r="E113" s="3">
         <v>6</v>
       </c>
@@ -2809,16 +4793,16 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D115" s="16"/>
+      <c r="D115" s="38"/>
       <c r="E115" s="3">
         <v>1</v>
       </c>
@@ -2830,10 +4814,10 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
       <c r="E116" s="3">
         <v>2</v>
       </c>
@@ -2847,10 +4831,10 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
       <c r="E117" s="3">
         <v>3</v>
       </c>
@@ -2875,16 +4859,16 @@
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D119" s="16"/>
+      <c r="D119" s="38"/>
       <c r="E119" s="3">
         <v>1</v>
       </c>
@@ -2896,10 +4880,10 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
       <c r="E120" s="3">
         <v>2</v>
       </c>
@@ -2913,10 +4897,10 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
       <c r="E121" s="3">
         <v>3</v>
       </c>
@@ -3012,22 +4996,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C68787-D522-4C0C-BFFE-2CE8A74EB26F}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3044,7 +5028,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="20" t="s">
         <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -3053,7 +5037,7 @@
       <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -3064,19 +5048,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="43" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="7">
@@ -3085,55 +5069,55 @@
       <c r="G2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="7">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="7">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="7">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="15" t="s">
         <v>99</v>
       </c>
       <c r="I5" s="1"/>
@@ -3144,82 +5128,82 @@
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="4"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="12">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="11">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="12">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="11">
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="12">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="11">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="15" t="s">
         <v>109</v>
       </c>
       <c r="I10" s="1"/>
@@ -3230,84 +5214,84 @@
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="4"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="4"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="12">
+      <c r="D12" s="38"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="11">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="12">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="11">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="15" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="12">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="11">
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="15" t="s">
         <v>104</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="12">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="11">
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="15" t="s">
         <v>104</v>
       </c>
       <c r="I15" s="1"/>
@@ -3318,82 +5302,82 @@
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="4"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="4"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="12">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="11">
         <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="12">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="11">
         <v>3</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="12">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="11">
         <v>4</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="15" t="s">
         <v>109</v>
       </c>
       <c r="I20" s="1"/>
@@ -3404,80 +5388,80 @@
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="4"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="4"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="12">
+      <c r="D22" s="38"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="11">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="12">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="11">
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="12">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="11">
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="12">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="11">
         <v>4</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="15" t="s">
         <v>109</v>
       </c>
       <c r="I25" s="1"/>
@@ -3488,71 +5472,953 @@
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="4"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="4"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="12">
+      <c r="D27" s="38"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="11">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="12">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="11">
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="12">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="11">
         <v>3</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="15" t="s">
         <v>118</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="12">
+        <v>2</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="12">
+        <v>3</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="12">
+        <v>4</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="12">
+        <v>5</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="12">
+        <v>2</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="12">
+        <v>3</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="12">
+        <v>2</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="12">
+        <v>3</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="12">
+        <v>4</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="12">
+        <v>5</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="12">
+        <v>6</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="14">
+        <v>1</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="14">
+        <v>2</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="14">
+        <v>3</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="14">
+        <v>2</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="14">
+        <v>3</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="14">
+        <v>4</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="14">
+        <v>5</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="14">
+        <v>6</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="14">
+        <v>7</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="14">
+        <v>8</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="14">
+        <v>9</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="14">
+        <v>10</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="14">
+        <v>11</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="14">
+        <v>1</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="14">
+        <v>2</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="14">
+        <v>3</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="14">
+        <v>4</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="23">
+        <v>5</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="38"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="14">
+        <v>1</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="14">
+        <v>2</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="14">
+        <v>3</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="38"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="14">
+        <v>1</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="14">
+        <v>2</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="38"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="14">
+        <v>1</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="14">
+        <v>2</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="75">
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="E52:E62"/>
+    <mergeCell ref="D52:D62"/>
+    <mergeCell ref="C52:C62"/>
+    <mergeCell ref="B52:B62"/>
+    <mergeCell ref="A52:A62"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
@@ -3583,6 +6449,3431 @@
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A41:A46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A070806D-3590-4EB7-AD44-3FDB0D65B4B2}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="16">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26BD680-35D4-4FB1-AB89-376A62B44B07}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="16">
+        <v>4</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="16">
+        <v>5</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="16">
+        <v>6</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="16">
+        <v>7</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="16">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="16">
+        <v>5</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="16">
+        <v>6</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="16">
+        <v>8</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="16">
+        <v>2</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="16">
+        <v>3</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="16">
+        <v>2</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="16">
+        <v>3</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="16">
+        <v>4</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="16">
+        <v>5</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="16">
+        <v>6</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="16">
+        <v>7</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="24">
+        <v>1</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="24">
+        <v>2</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="24">
+        <v>3</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="24">
+        <v>4</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="24">
+        <v>1</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="24">
+        <v>2</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="24">
+        <v>3</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="28"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="24">
+        <v>1</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="24">
+        <v>2</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="24">
+        <v>3</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="24">
+        <v>4</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F534B06A-1879-404C-9A72-DBEC04A29C1F}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="16">
+        <v>2</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="16">
+        <v>2</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="24">
+        <v>2</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="24">
+        <v>1</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="24">
+        <v>2</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="24">
+        <v>1</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="24">
+        <v>2</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="24">
+        <v>1</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="24">
+        <v>2</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="24">
+        <v>1</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="24">
+        <v>2</v>
+      </c>
+      <c r="G35" s="34"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CEEC49-AFB7-4C0F-B598-9BAE6E89A7B6}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="16">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0266492-4A26-408E-81EC-21BD73F9B8FA}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="16">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D079D0-D5A0-44FB-B14A-D884516F4606}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="16">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
